--- a/data/pca/factorExposure/factorExposure_2015-01-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-01-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +720,54 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.01145450418648315</v>
+        <v>0.009621928565109893</v>
       </c>
       <c r="C2">
-        <v>-0.03881343668585269</v>
+        <v>-0.0548236489982549</v>
       </c>
       <c r="D2">
-        <v>-0.1305461670925083</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.08401197557028513</v>
+      </c>
+      <c r="E2">
+        <v>0.09036757909505586</v>
+      </c>
+      <c r="F2">
+        <v>0.1405522998716231</v>
+      </c>
+      <c r="G2">
+        <v>-0.06184778878310268</v>
+      </c>
+      <c r="H2">
+        <v>-0.07546595334986558</v>
+      </c>
+      <c r="I2">
+        <v>-0.02611387387950844</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +778,54 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.03624121723539567</v>
+        <v>0.01744969090967938</v>
       </c>
       <c r="C4">
-        <v>-0.1237400617179785</v>
+        <v>-0.1443016208646118</v>
       </c>
       <c r="D4">
-        <v>-0.0866303083968949</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.04311895632069208</v>
+      </c>
+      <c r="E4">
+        <v>0.06721981502617408</v>
+      </c>
+      <c r="F4">
+        <v>0.1044156692160309</v>
+      </c>
+      <c r="G4">
+        <v>0.05671784128866007</v>
+      </c>
+      <c r="H4">
+        <v>0.01317251002790975</v>
+      </c>
+      <c r="I4">
+        <v>-0.07293040465119031</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +836,344 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.0184559472724335</v>
+        <v>0.02859529495181595</v>
       </c>
       <c r="C6">
-        <v>-0.04775027533989649</v>
+        <v>-0.05764502895675133</v>
       </c>
       <c r="D6">
-        <v>-0.07992979581158212</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.0538859361631651</v>
+      </c>
+      <c r="E6">
+        <v>0.08396201624565804</v>
+      </c>
+      <c r="F6">
+        <v>0.05744693306900265</v>
+      </c>
+      <c r="G6">
+        <v>-0.04006604917610128</v>
+      </c>
+      <c r="H6">
+        <v>0.03856782800240897</v>
+      </c>
+      <c r="I6">
+        <v>-0.01901932778373856</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.0125279389014821</v>
+        <v>0.003487588327245369</v>
       </c>
       <c r="C7">
-        <v>-0.04529843752803065</v>
+        <v>-0.05896226887385261</v>
       </c>
       <c r="D7">
-        <v>-0.0714153116771246</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05077067326507318</v>
+      </c>
+      <c r="E7">
+        <v>0.06537644313465282</v>
+      </c>
+      <c r="F7">
+        <v>0.01016721475681517</v>
+      </c>
+      <c r="G7">
+        <v>0.01293606517653999</v>
+      </c>
+      <c r="H7">
+        <v>0.04230369442098568</v>
+      </c>
+      <c r="I7">
+        <v>-0.08507040483286489</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.004480714261654203</v>
+        <v>-0.007699833670884017</v>
       </c>
       <c r="C8">
-        <v>-0.04603136982278452</v>
+        <v>-0.05439070566727908</v>
       </c>
       <c r="D8">
-        <v>-0.0696829125636876</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02307315555168285</v>
+      </c>
+      <c r="E8">
+        <v>0.06028048191306364</v>
+      </c>
+      <c r="F8">
+        <v>0.0842873345564293</v>
+      </c>
+      <c r="G8">
+        <v>0.02728986146479245</v>
+      </c>
+      <c r="H8">
+        <v>-0.05210900336266224</v>
+      </c>
+      <c r="I8">
+        <v>-0.02607387042704424</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.01996818382793826</v>
+        <v>0.009667435439942123</v>
       </c>
       <c r="C9">
-        <v>-0.1008666447318457</v>
+        <v>-0.1146096211028601</v>
       </c>
       <c r="D9">
-        <v>-0.08030828147789182</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.03974739098967851</v>
+      </c>
+      <c r="E9">
+        <v>0.05954879492864132</v>
+      </c>
+      <c r="F9">
+        <v>0.07170326392273055</v>
+      </c>
+      <c r="G9">
+        <v>0.003642224964453092</v>
+      </c>
+      <c r="H9">
+        <v>0.03185752348562504</v>
+      </c>
+      <c r="I9">
+        <v>-0.0758962015961558</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.219204543837503</v>
+        <v>0.2413784345604012</v>
       </c>
       <c r="C10">
-        <v>0.1096555320052964</v>
+        <v>0.08106612383145205</v>
       </c>
       <c r="D10">
-        <v>0.04132754144878178</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01466959624194293</v>
+      </c>
+      <c r="E10">
+        <v>-0.02035583231928034</v>
+      </c>
+      <c r="F10">
+        <v>0.01270561643261874</v>
+      </c>
+      <c r="G10">
+        <v>0.002415994754460273</v>
+      </c>
+      <c r="H10">
+        <v>0.02789056073008741</v>
+      </c>
+      <c r="I10">
+        <v>-0.05008458264384067</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.007175363836809854</v>
+        <v>0.01037159966930224</v>
       </c>
       <c r="C11">
-        <v>-0.04788673504108378</v>
+        <v>-0.06733021612222861</v>
       </c>
       <c r="D11">
-        <v>-0.04866345875827516</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.02423787993183504</v>
+      </c>
+      <c r="E11">
+        <v>0.05075390196804806</v>
+      </c>
+      <c r="F11">
+        <v>0.006235832984848502</v>
+      </c>
+      <c r="G11">
+        <v>0.009967065027320409</v>
+      </c>
+      <c r="H11">
+        <v>0.03365073653239693</v>
+      </c>
+      <c r="I11">
+        <v>-0.04327837928678459</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.009130263301705075</v>
+        <v>0.01147849246396264</v>
       </c>
       <c r="C12">
-        <v>-0.0513551311080518</v>
+        <v>-0.05828868768061951</v>
       </c>
       <c r="D12">
-        <v>-0.04992187609715447</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02778631357571866</v>
+      </c>
+      <c r="E12">
+        <v>0.03687803213378391</v>
+      </c>
+      <c r="F12">
+        <v>-0.006160376262250728</v>
+      </c>
+      <c r="G12">
+        <v>-0.01775284398240009</v>
+      </c>
+      <c r="H12">
+        <v>0.02708665331811308</v>
+      </c>
+      <c r="I12">
+        <v>-0.05190630755298344</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.0156714928198068</v>
+        <v>0.003166796767932954</v>
       </c>
       <c r="C13">
-        <v>-0.06144036444330665</v>
+        <v>-0.09139339563868791</v>
       </c>
       <c r="D13">
-        <v>-0.1251901464070191</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.0959467782925157</v>
+      </c>
+      <c r="E13">
+        <v>0.1002269807715277</v>
+      </c>
+      <c r="F13">
+        <v>0.04683875907675834</v>
+      </c>
+      <c r="G13">
+        <v>-0.105713648086525</v>
+      </c>
+      <c r="H13">
+        <v>0.02139094861483097</v>
+      </c>
+      <c r="I13">
+        <v>-0.09439016710645759</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.008711233381659083</v>
+        <v>0.002947915845842615</v>
       </c>
       <c r="C14">
-        <v>-0.02841782107312861</v>
+        <v>-0.05188675470307366</v>
       </c>
       <c r="D14">
-        <v>-0.06203099005476193</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03642325107835005</v>
+      </c>
+      <c r="E14">
+        <v>0.1031869027079112</v>
+      </c>
+      <c r="F14">
+        <v>0.02322879530066977</v>
+      </c>
+      <c r="G14">
+        <v>-0.04381599407281573</v>
+      </c>
+      <c r="H14">
+        <v>0.0567864393297387</v>
+      </c>
+      <c r="I14">
+        <v>-0.1395660362258523</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.001504993325106965</v>
+        <v>-0.004754683823863777</v>
       </c>
       <c r="C15">
-        <v>-0.02342822711163736</v>
+        <v>-0.04474409288501022</v>
       </c>
       <c r="D15">
-        <v>-0.0676605271617491</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04181420915606603</v>
+      </c>
+      <c r="E15">
+        <v>0.06521283293600476</v>
+      </c>
+      <c r="F15">
+        <v>0.02041473819084823</v>
+      </c>
+      <c r="G15">
+        <v>0.004364113948960581</v>
+      </c>
+      <c r="H15">
+        <v>0.006642703598863998</v>
+      </c>
+      <c r="I15">
+        <v>-0.05354437011066863</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.005902800688743521</v>
+        <v>0.00884455217820436</v>
       </c>
       <c r="C16">
-        <v>-0.0450103762342596</v>
+        <v>-0.05809143874116574</v>
       </c>
       <c r="D16">
-        <v>-0.04160918415700054</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02483737486950155</v>
+      </c>
+      <c r="E16">
+        <v>0.03673260847279265</v>
+      </c>
+      <c r="F16">
+        <v>0.0004996731586924108</v>
+      </c>
+      <c r="G16">
+        <v>-0.005393500282338725</v>
+      </c>
+      <c r="H16">
+        <v>0.03720436145404953</v>
+      </c>
+      <c r="I16">
+        <v>-0.04145473807054589</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1184,25 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1213,257 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.007990705783610481</v>
+        <v>0.003047464527314806</v>
       </c>
       <c r="C19">
-        <v>-0.02019449725659105</v>
+        <v>-0.01513641160472467</v>
       </c>
       <c r="D19">
-        <v>-0.03243482632128859</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.004138084610039718</v>
+      </c>
+      <c r="E19">
+        <v>0.01556814282866352</v>
+      </c>
+      <c r="F19">
+        <v>-0.009362404390401514</v>
+      </c>
+      <c r="G19">
+        <v>-0.003390805155820888</v>
+      </c>
+      <c r="H19">
+        <v>-0.02004917050159504</v>
+      </c>
+      <c r="I19">
+        <v>-0.02836258242325692</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.003526003511042878</v>
+        <v>0.001225332404087108</v>
       </c>
       <c r="C20">
-        <v>-0.0458586469073928</v>
+        <v>-0.06537300713706196</v>
       </c>
       <c r="D20">
-        <v>-0.06169569706666955</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04293075686316732</v>
+      </c>
+      <c r="E20">
+        <v>0.06034387408648582</v>
+      </c>
+      <c r="F20">
+        <v>0.01026962720771548</v>
+      </c>
+      <c r="G20">
+        <v>0.01171013376034773</v>
+      </c>
+      <c r="H20">
+        <v>0.05941196367249228</v>
+      </c>
+      <c r="I20">
+        <v>-0.0627782937706968</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.009455030450923803</v>
+        <v>0.006184322359774972</v>
       </c>
       <c r="C21">
-        <v>-0.066442079959289</v>
+        <v>-0.07477991216013546</v>
       </c>
       <c r="D21">
-        <v>-0.08546339473923951</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.04320196651463622</v>
+      </c>
+      <c r="E21">
+        <v>0.07484875627013635</v>
+      </c>
+      <c r="F21">
+        <v>0.06009160930032342</v>
+      </c>
+      <c r="G21">
+        <v>-0.1097293559344776</v>
+      </c>
+      <c r="H21">
+        <v>-0.008265880737368886</v>
+      </c>
+      <c r="I21">
+        <v>-0.192380383101231</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>-0.006362853282826875</v>
+        <v>-0.01294050414750723</v>
       </c>
       <c r="C22">
-        <v>-0.07795688943003758</v>
+        <v>-0.1077286930435051</v>
       </c>
       <c r="D22">
-        <v>-0.2026070551334976</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1831846981887411</v>
+      </c>
+      <c r="E22">
+        <v>0.1455146818897535</v>
+      </c>
+      <c r="F22">
+        <v>0.2735383231870692</v>
+      </c>
+      <c r="G22">
+        <v>0.1400907220999796</v>
+      </c>
+      <c r="H22">
+        <v>-0.2465531069572465</v>
+      </c>
+      <c r="I22">
+        <v>0.4100755825296439</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>-0.0064163122992032</v>
+        <v>-0.009715394716684134</v>
       </c>
       <c r="C23">
-        <v>-0.07907465817586956</v>
+        <v>-0.1105315679218522</v>
       </c>
       <c r="D23">
-        <v>-0.2019794865837375</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1853754151491299</v>
+      </c>
+      <c r="E23">
+        <v>0.1424489443337462</v>
+      </c>
+      <c r="F23">
+        <v>0.2689565993740974</v>
+      </c>
+      <c r="G23">
+        <v>0.1327866699306879</v>
+      </c>
+      <c r="H23">
+        <v>-0.2363306784668605</v>
+      </c>
+      <c r="I23">
+        <v>0.3831713592123701</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.008851036325906766</v>
+        <v>0.01060578443604953</v>
       </c>
       <c r="C24">
-        <v>-0.0679279909589969</v>
+        <v>-0.07555073954393239</v>
       </c>
       <c r="D24">
-        <v>-0.05346402097679098</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.01906317463862928</v>
+      </c>
+      <c r="E24">
+        <v>0.05026244753957668</v>
+      </c>
+      <c r="F24">
+        <v>0.001098915291021375</v>
+      </c>
+      <c r="G24">
+        <v>-0.0006787396183079691</v>
+      </c>
+      <c r="H24">
+        <v>0.0268927921711884</v>
+      </c>
+      <c r="I24">
+        <v>-0.06163443965866505</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.01144657846584062</v>
+        <v>0.01477809061560779</v>
       </c>
       <c r="C25">
-        <v>-0.05863139428143566</v>
+        <v>-0.06859013420294922</v>
       </c>
       <c r="D25">
-        <v>-0.04466569584313324</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02103708690555685</v>
+      </c>
+      <c r="E25">
+        <v>0.03878576536072886</v>
+      </c>
+      <c r="F25">
+        <v>0.006138153845878186</v>
+      </c>
+      <c r="G25">
+        <v>0.003913953247470696</v>
+      </c>
+      <c r="H25">
+        <v>0.03551367351227613</v>
+      </c>
+      <c r="I25">
+        <v>-0.04130832338484874</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.007249146299298793</v>
+        <v>0.01673145781714121</v>
       </c>
       <c r="C26">
-        <v>-0.03283769820965923</v>
+        <v>-0.05056456477460956</v>
       </c>
       <c r="D26">
-        <v>-0.05302468141362388</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.006484558948921615</v>
+      </c>
+      <c r="E26">
+        <v>0.08281220434705402</v>
+      </c>
+      <c r="F26">
+        <v>0.03483744356285477</v>
+      </c>
+      <c r="G26">
+        <v>-0.01068157218628263</v>
+      </c>
+      <c r="H26">
+        <v>0.02618230843202402</v>
+      </c>
+      <c r="I26">
+        <v>-0.1233204590960582</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1474,286 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.3068155122619699</v>
+        <v>0.3158140435783297</v>
       </c>
       <c r="C28">
-        <v>0.125394698266725</v>
+        <v>0.09498521081497299</v>
       </c>
       <c r="D28">
-        <v>0.03129487586879093</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01484191941086575</v>
+      </c>
+      <c r="E28">
+        <v>-0.03438848449350623</v>
+      </c>
+      <c r="F28">
+        <v>0.05610423385532481</v>
+      </c>
+      <c r="G28">
+        <v>0.04733352507986294</v>
+      </c>
+      <c r="H28">
+        <v>-0.0459027572999403</v>
+      </c>
+      <c r="I28">
+        <v>-0.06993494207448761</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.0005156116336601971</v>
+        <v>0.002508029150090541</v>
       </c>
       <c r="C29">
-        <v>-0.0369163073054448</v>
+        <v>-0.06116835242211887</v>
       </c>
       <c r="D29">
-        <v>-0.07046186637012077</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.0495787185001477</v>
+      </c>
+      <c r="E29">
+        <v>0.1057563792722381</v>
+      </c>
+      <c r="F29">
+        <v>0.02510368272085641</v>
+      </c>
+      <c r="G29">
+        <v>-0.06336546358906653</v>
+      </c>
+      <c r="H29">
+        <v>0.0816913537296982</v>
+      </c>
+      <c r="I29">
+        <v>-0.1774382726059621</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.01926704426490876</v>
+        <v>0.01715685201870776</v>
       </c>
       <c r="C30">
-        <v>-0.09848430120071976</v>
+        <v>-0.1195714488898437</v>
       </c>
       <c r="D30">
-        <v>-0.1307205072134363</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.06913725449075556</v>
+      </c>
+      <c r="E30">
+        <v>0.1095086607356572</v>
+      </c>
+      <c r="F30">
+        <v>0.06174725299925386</v>
+      </c>
+      <c r="G30">
+        <v>0.01463338471524381</v>
+      </c>
+      <c r="H30">
+        <v>0.009267005457024174</v>
+      </c>
+      <c r="I30">
+        <v>-0.02703063456591031</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.01299535728441462</v>
+        <v>0.008836654464523627</v>
       </c>
       <c r="C31">
-        <v>-0.09688099602924315</v>
+        <v>-0.1015404294404543</v>
       </c>
       <c r="D31">
-        <v>-0.03276447279201047</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.001069000047081861</v>
+      </c>
+      <c r="E31">
+        <v>0.02562619201405998</v>
+      </c>
+      <c r="F31">
+        <v>-3.662661307295868e-06</v>
+      </c>
+      <c r="G31">
+        <v>0.0002215457958677445</v>
+      </c>
+      <c r="H31">
+        <v>-0.02466440614723013</v>
+      </c>
+      <c r="I31">
+        <v>-0.05850921189960499</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.01676168938571318</v>
+        <v>0.01449719643424262</v>
       </c>
       <c r="C32">
-        <v>-0.05338938990324477</v>
+        <v>-0.06187923195373651</v>
       </c>
       <c r="D32">
-        <v>-0.09055279397584444</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.04351262589492256</v>
+      </c>
+      <c r="E32">
+        <v>0.05485780025069311</v>
+      </c>
+      <c r="F32">
+        <v>0.1085666856943265</v>
+      </c>
+      <c r="G32">
+        <v>-0.04432051955207472</v>
+      </c>
+      <c r="H32">
+        <v>0.002761789735760189</v>
+      </c>
+      <c r="I32">
+        <v>-0.1110845296486551</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.004236095122160233</v>
+        <v>0.008218691088222827</v>
       </c>
       <c r="C33">
-        <v>-0.06342865283550912</v>
+        <v>-0.08769944497059082</v>
       </c>
       <c r="D33">
-        <v>-0.08402659426600836</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.05481345523259392</v>
+      </c>
+      <c r="E33">
+        <v>0.07687297709711936</v>
+      </c>
+      <c r="F33">
+        <v>0.02254027339856466</v>
+      </c>
+      <c r="G33">
+        <v>-0.003739740878194036</v>
+      </c>
+      <c r="H33">
+        <v>0.0330968861646947</v>
+      </c>
+      <c r="I33">
+        <v>-0.05834970806064116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.008173526075777872</v>
+        <v>0.01120195551925701</v>
       </c>
       <c r="C34">
-        <v>-0.06584356797470294</v>
+        <v>-0.06532092251039691</v>
       </c>
       <c r="D34">
-        <v>-0.06683688987860682</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.02032938821904227</v>
+      </c>
+      <c r="E34">
+        <v>0.04519055169309014</v>
+      </c>
+      <c r="F34">
+        <v>-0.02688000583725217</v>
+      </c>
+      <c r="G34">
+        <v>-0.006651664615698596</v>
+      </c>
+      <c r="H34">
+        <v>0.01132783981119982</v>
+      </c>
+      <c r="I34">
+        <v>-0.02969554958437445</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0.001322520308663737</v>
+        <v>0.00489847234461483</v>
       </c>
       <c r="C35">
-        <v>-0.001667937131006559</v>
+        <v>-0.02390286784118834</v>
       </c>
       <c r="D35">
-        <v>-0.006531159008266463</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.02019404327348587</v>
+      </c>
+      <c r="E35">
+        <v>0.03282519688719378</v>
+      </c>
+      <c r="F35">
+        <v>0.02115697531134921</v>
+      </c>
+      <c r="G35">
+        <v>-0.0170019709892101</v>
+      </c>
+      <c r="H35">
+        <v>0.05040472094131977</v>
+      </c>
+      <c r="I35">
+        <v>-0.1062310225556893</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.003501285772591298</v>
+        <v>0.0089032940111232</v>
       </c>
       <c r="C36">
-        <v>-0.03061743528875453</v>
+        <v>-0.04130233540162924</v>
       </c>
       <c r="D36">
-        <v>-0.04315678275280712</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01480477942555597</v>
+      </c>
+      <c r="E36">
+        <v>0.06684803294648115</v>
+      </c>
+      <c r="F36">
+        <v>0.04011975121970001</v>
+      </c>
+      <c r="G36">
+        <v>-0.009719302142957728</v>
+      </c>
+      <c r="H36">
+        <v>0.02874381636395596</v>
+      </c>
+      <c r="I36">
+        <v>-0.07260083248264652</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1764,141 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.005874819831634162</v>
+        <v>0.007170283247635663</v>
       </c>
       <c r="C38">
-        <v>-0.01851729410704422</v>
+        <v>-0.04245955048874946</v>
       </c>
       <c r="D38">
-        <v>-0.0654644053934663</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.03987712387366601</v>
+      </c>
+      <c r="E38">
+        <v>0.0763049062165434</v>
+      </c>
+      <c r="F38">
+        <v>0.01578972217388677</v>
+      </c>
+      <c r="G38">
+        <v>0.04637367806130817</v>
+      </c>
+      <c r="H38">
+        <v>-0.002563568376331349</v>
+      </c>
+      <c r="I38">
+        <v>-0.0764765088537956</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.009351684376544574</v>
+        <v>0.008098409108126889</v>
       </c>
       <c r="C39">
-        <v>-0.08069104257307282</v>
+        <v>-0.1050116373403308</v>
       </c>
       <c r="D39">
-        <v>-0.102536155487268</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.0392609028633473</v>
+      </c>
+      <c r="E39">
+        <v>0.09158886721137594</v>
+      </c>
+      <c r="F39">
+        <v>-0.001229160507613924</v>
+      </c>
+      <c r="G39">
+        <v>-0.01690212877063955</v>
+      </c>
+      <c r="H39">
+        <v>0.03976890838043043</v>
+      </c>
+      <c r="I39">
+        <v>-0.05728610113796443</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.002713433719605925</v>
+        <v>0.00818778577338262</v>
       </c>
       <c r="C40">
-        <v>-0.02829875957646988</v>
+        <v>-0.05203475473342947</v>
       </c>
       <c r="D40">
-        <v>-0.09894679376290634</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.07161193030796836</v>
+      </c>
+      <c r="E40">
+        <v>0.1100373693626143</v>
+      </c>
+      <c r="F40">
+        <v>-0.009807860963168625</v>
+      </c>
+      <c r="G40">
+        <v>-0.0220303762277628</v>
+      </c>
+      <c r="H40">
+        <v>0.0283982812776654</v>
+      </c>
+      <c r="I40">
+        <v>-0.01261075576171401</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.006777156499773232</v>
+        <v>0.01649865194413062</v>
       </c>
       <c r="C41">
-        <v>-0.02253329741252113</v>
+        <v>-0.04063056736942533</v>
       </c>
       <c r="D41">
-        <v>-0.01759866629525628</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01614956099506533</v>
+      </c>
+      <c r="E41">
+        <v>0.01759511844556599</v>
+      </c>
+      <c r="F41">
+        <v>-0.009683934497937757</v>
+      </c>
+      <c r="G41">
+        <v>0.006449576178318356</v>
+      </c>
+      <c r="H41">
+        <v>0.01065285989424337</v>
+      </c>
+      <c r="I41">
+        <v>-0.0452225651902189</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1909,83 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.00451045646960082</v>
+        <v>0.007636332172692438</v>
       </c>
       <c r="C43">
-        <v>-0.01810638835642444</v>
+        <v>-0.0337339878980981</v>
       </c>
       <c r="D43">
-        <v>-0.03544598258999043</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.01942756608437422</v>
+      </c>
+      <c r="E43">
+        <v>0.04080858883925927</v>
+      </c>
+      <c r="F43">
+        <v>0.0008480359461975178</v>
+      </c>
+      <c r="G43">
+        <v>0.01090103798761911</v>
+      </c>
+      <c r="H43">
+        <v>0.01932370366717668</v>
+      </c>
+      <c r="I43">
+        <v>-0.05509290015768753</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.01322441722364498</v>
+        <v>0.005835747953890875</v>
       </c>
       <c r="C44">
-        <v>-0.06089278657995038</v>
+        <v>-0.0771545043047546</v>
       </c>
       <c r="D44">
-        <v>-0.08693343289265484</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.04380786191822652</v>
+      </c>
+      <c r="E44">
+        <v>0.09617685028186619</v>
+      </c>
+      <c r="F44">
+        <v>0.0455115056528497</v>
+      </c>
+      <c r="G44">
+        <v>0.008524139644535481</v>
+      </c>
+      <c r="H44">
+        <v>-0.005345637677692122</v>
+      </c>
+      <c r="I44">
+        <v>-0.02703266255694812</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1996,199 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.003267310359208192</v>
+        <v>-0.002606162029069331</v>
       </c>
       <c r="C46">
-        <v>-0.04525842012130724</v>
+        <v>-0.05499756770737221</v>
       </c>
       <c r="D46">
-        <v>-0.07185320030238014</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.0263801328490871</v>
+      </c>
+      <c r="E46">
+        <v>0.08443714742255942</v>
+      </c>
+      <c r="F46">
+        <v>0.0194555615260836</v>
+      </c>
+      <c r="G46">
+        <v>-0.01592384087107711</v>
+      </c>
+      <c r="H46">
+        <v>0.05059355483376701</v>
+      </c>
+      <c r="I46">
+        <v>-0.1129530635278791</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.04192956977959859</v>
+        <v>0.02685572394159683</v>
       </c>
       <c r="C47">
-        <v>-0.1249329625398453</v>
+        <v>-0.1205339748831859</v>
       </c>
       <c r="D47">
-        <v>-0.03884805278404053</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.005558512411049068</v>
+      </c>
+      <c r="E47">
+        <v>0.01485862222958099</v>
+      </c>
+      <c r="F47">
+        <v>-0.006124703257452382</v>
+      </c>
+      <c r="G47">
+        <v>0.01067589321640741</v>
+      </c>
+      <c r="H47">
+        <v>-0.005785447084263801</v>
+      </c>
+      <c r="I47">
+        <v>-0.08812092744237156</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.004558254759072007</v>
+        <v>0.01206141078942513</v>
       </c>
       <c r="C48">
-        <v>-0.03653483506225515</v>
+        <v>-0.04926783160833053</v>
       </c>
       <c r="D48">
-        <v>-0.04630675200972611</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.007708019040294181</v>
+      </c>
+      <c r="E48">
+        <v>0.07814185304282695</v>
+      </c>
+      <c r="F48">
+        <v>0.04923122193159692</v>
+      </c>
+      <c r="G48">
+        <v>-0.003761442205470755</v>
+      </c>
+      <c r="H48">
+        <v>0.03454164211416198</v>
+      </c>
+      <c r="I48">
+        <v>-0.11777829870859</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.002824940130241815</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.006085282456613677</v>
       </c>
       <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.0008360916723264751</v>
+      </c>
+      <c r="E49">
+        <v>0.002612433951581135</v>
+      </c>
+      <c r="F49">
+        <v>-0.01323527966229875</v>
+      </c>
+      <c r="G49">
+        <v>-0.007687547227976757</v>
+      </c>
+      <c r="H49">
+        <v>0.01451025089616359</v>
+      </c>
+      <c r="I49">
+        <v>0.008915387196809297</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.01078163041238524</v>
+        <v>0.008749537841590101</v>
       </c>
       <c r="C50">
-        <v>-0.06591959344327304</v>
+        <v>-0.07875425972524716</v>
       </c>
       <c r="D50">
-        <v>-0.04685234888820591</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02008294336732108</v>
+      </c>
+      <c r="E50">
+        <v>0.03282618714088337</v>
+      </c>
+      <c r="F50">
+        <v>0.009672453065413715</v>
+      </c>
+      <c r="G50">
+        <v>0.009090213516185301</v>
+      </c>
+      <c r="H50">
+        <v>-0.01538851400874552</v>
+      </c>
+      <c r="I50">
+        <v>-0.06180753821896878</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.003416257327813395</v>
+        <v>-0.006365847368405794</v>
       </c>
       <c r="C51">
-        <v>-0.01793430804226598</v>
+        <v>-0.02838115071880412</v>
       </c>
       <c r="D51">
-        <v>-0.06204918777785085</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01824377294549379</v>
+      </c>
+      <c r="E51">
+        <v>0.05528585541229423</v>
+      </c>
+      <c r="F51">
+        <v>0.05068580832999833</v>
+      </c>
+      <c r="G51">
+        <v>-0.01897508958134592</v>
+      </c>
+      <c r="H51">
+        <v>-0.001982025805568313</v>
+      </c>
+      <c r="I51">
+        <v>-0.09699873709812779</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2199,141 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.07992848064329469</v>
+        <v>0.05952370702593869</v>
       </c>
       <c r="C53">
-        <v>-0.1576799618298366</v>
+        <v>-0.164130597681142</v>
       </c>
       <c r="D53">
-        <v>0.004733261845457907</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.04375937090668735</v>
+      </c>
+      <c r="E53">
+        <v>-0.04318850858682091</v>
+      </c>
+      <c r="F53">
+        <v>-0.02251250572360568</v>
+      </c>
+      <c r="G53">
+        <v>0.01544556888549845</v>
+      </c>
+      <c r="H53">
+        <v>-0.02809149604841462</v>
+      </c>
+      <c r="I53">
+        <v>-0.0268009020692439</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.0003955248226149927</v>
+        <v>0.009712755915375142</v>
       </c>
       <c r="C54">
-        <v>-0.04031286935251411</v>
+        <v>-0.05597801958838519</v>
       </c>
       <c r="D54">
-        <v>-0.08271759723763107</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.05269378204386853</v>
+      </c>
+      <c r="E54">
+        <v>0.05591235420365055</v>
+      </c>
+      <c r="F54">
+        <v>0.01275348680599927</v>
+      </c>
+      <c r="G54">
+        <v>0.003522672734643441</v>
+      </c>
+      <c r="H54">
+        <v>0.01045379959528402</v>
+      </c>
+      <c r="I54">
+        <v>-0.09820325293178273</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.05608177395649377</v>
+        <v>0.03608941080645156</v>
       </c>
       <c r="C55">
-        <v>-0.116955106619223</v>
+        <v>-0.1179696210786502</v>
       </c>
       <c r="D55">
-        <v>0.005018872049951713</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.05500459889178567</v>
+      </c>
+      <c r="E55">
+        <v>-0.01226662604634161</v>
+      </c>
+      <c r="F55">
+        <v>-0.03156305562977678</v>
+      </c>
+      <c r="G55">
+        <v>0.001918111300051636</v>
+      </c>
+      <c r="H55">
+        <v>-0.03780832376328905</v>
+      </c>
+      <c r="I55">
+        <v>-0.02619125446288776</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.08798041333992988</v>
+        <v>0.05640174014534506</v>
       </c>
       <c r="C56">
-        <v>-0.1799644162615864</v>
+        <v>-0.1874893861935807</v>
       </c>
       <c r="D56">
-        <v>-0.02199686499041524</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05851925202764477</v>
+      </c>
+      <c r="E56">
+        <v>-0.03249818398241953</v>
+      </c>
+      <c r="F56">
+        <v>-0.06893241142203094</v>
+      </c>
+      <c r="G56">
+        <v>0.02027011888454315</v>
+      </c>
+      <c r="H56">
+        <v>-0.1175553083716418</v>
+      </c>
+      <c r="I56">
+        <v>-0.01966304391517441</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,178 +2344,373 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.01653351772943887</v>
+        <v>0.009111265821349881</v>
       </c>
       <c r="C58">
-        <v>-0.06414596661272036</v>
+        <v>-0.1133637370208566</v>
       </c>
       <c r="D58">
-        <v>-0.1866224171171546</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.1661797266434107</v>
+      </c>
+      <c r="E58">
+        <v>0.132841359707018</v>
+      </c>
+      <c r="F58">
+        <v>0.2656248639073425</v>
+      </c>
+      <c r="G58">
+        <v>0.06607299352355062</v>
+      </c>
+      <c r="H58">
+        <v>-0.1383065911306899</v>
+      </c>
+      <c r="I58">
+        <v>0.07045613398755177</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.2354006199192817</v>
+        <v>0.2677487169177817</v>
       </c>
       <c r="C59">
-        <v>0.07185483806036072</v>
+        <v>0.04643926495820545</v>
       </c>
       <c r="D59">
-        <v>-0.05428536929368325</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.02694984844647117</v>
+      </c>
+      <c r="E59">
+        <v>0.02442305459847407</v>
+      </c>
+      <c r="F59">
+        <v>0.02548513152294924</v>
+      </c>
+      <c r="G59">
+        <v>-0.0174193310191294</v>
+      </c>
+      <c r="H59">
+        <v>-0.006032005963652884</v>
+      </c>
+      <c r="I59">
+        <v>0.0239727851808401</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.142840545310841</v>
+        <v>0.1483255693994703</v>
       </c>
       <c r="C60">
-        <v>-0.1317914815764078</v>
+        <v>-0.1591219548855304</v>
       </c>
       <c r="D60">
-        <v>-0.0953996629842957</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.0481353209484799</v>
+      </c>
+      <c r="E60">
+        <v>0.06981332428189545</v>
+      </c>
+      <c r="F60">
+        <v>-0.203788012300507</v>
+      </c>
+      <c r="G60">
+        <v>-0.1041049802016959</v>
+      </c>
+      <c r="H60">
+        <v>0.2033433010024937</v>
+      </c>
+      <c r="I60">
+        <v>0.2776460237677962</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.01577817127202584</v>
+        <v>0.01506691949909292</v>
       </c>
       <c r="C61">
-        <v>-0.06840869978265837</v>
+        <v>-0.09085081841535649</v>
       </c>
       <c r="D61">
-        <v>-0.07293579460365908</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.02715121422324621</v>
+      </c>
+      <c r="E61">
+        <v>0.07242681104157446</v>
+      </c>
+      <c r="F61">
+        <v>-0.01485614390448802</v>
+      </c>
+      <c r="G61">
+        <v>-0.003460117610190964</v>
+      </c>
+      <c r="H61">
+        <v>0.03213747541258145</v>
+      </c>
+      <c r="I61">
+        <v>-0.0675363652438082</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.0003256206627737825</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.0009318936676860122</v>
       </c>
       <c r="D62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.00012547728581494</v>
+      </c>
+      <c r="E62">
+        <v>-1.014421292179609e-05</v>
+      </c>
+      <c r="F62">
+        <v>0.001747616495624503</v>
+      </c>
+      <c r="G62">
+        <v>0.0001263779091444033</v>
+      </c>
+      <c r="H62">
+        <v>-0.0009888516920456669</v>
+      </c>
+      <c r="I62">
+        <v>-0.002298421139942467</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.001824681472715037</v>
+        <v>0.01589314018397967</v>
       </c>
       <c r="C63">
-        <v>-0.04956483504934929</v>
+        <v>-0.06504240460470927</v>
       </c>
       <c r="D63">
-        <v>-0.06336374830372409</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.01688683361947702</v>
+      </c>
+      <c r="E63">
+        <v>0.0761156975365286</v>
+      </c>
+      <c r="F63">
+        <v>0.008188570402630614</v>
+      </c>
+      <c r="G63">
+        <v>-0.006981225773731966</v>
+      </c>
+      <c r="H63">
+        <v>0.03010521093877116</v>
+      </c>
+      <c r="I63">
+        <v>-0.07207948540652963</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.0303087339051943</v>
+        <v>0.01625466101213079</v>
       </c>
       <c r="C64">
-        <v>-0.1099246564352739</v>
+        <v>-0.105992726084833</v>
       </c>
       <c r="D64">
-        <v>-0.01389087652414373</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.01285120857780536</v>
+      </c>
+      <c r="E64">
+        <v>0.02491673671894778</v>
+      </c>
+      <c r="F64">
+        <v>0.01787663145940779</v>
+      </c>
+      <c r="G64">
+        <v>0.01527092068872969</v>
+      </c>
+      <c r="H64">
+        <v>0.05555390197553606</v>
+      </c>
+      <c r="I64">
+        <v>0.01650136762626122</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.01608125904615994</v>
+        <v>0.02262636105164126</v>
       </c>
       <c r="C65">
-        <v>-0.04127249087265886</v>
+        <v>-0.06563969308337256</v>
       </c>
       <c r="D65">
-        <v>-0.08491205715538842</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.07234771148552041</v>
+      </c>
+      <c r="E65">
+        <v>0.08582778742094227</v>
+      </c>
+      <c r="F65">
+        <v>0.006223185702935223</v>
+      </c>
+      <c r="G65">
+        <v>0.003810317680418659</v>
+      </c>
+      <c r="H65">
+        <v>0.09111757248712082</v>
+      </c>
+      <c r="I65">
+        <v>0.02793508684816851</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.01618266176188162</v>
+        <v>0.009866080793808723</v>
       </c>
       <c r="C66">
-        <v>-0.09871140322304796</v>
+        <v>-0.1301334955830357</v>
       </c>
       <c r="D66">
-        <v>-0.1314564826623283</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.07037138265772523</v>
+      </c>
+      <c r="E66">
+        <v>0.09537521890837501</v>
+      </c>
+      <c r="F66">
+        <v>0.008861806465062641</v>
+      </c>
+      <c r="G66">
+        <v>-0.005935889973519599</v>
+      </c>
+      <c r="H66">
+        <v>0.00834789316594285</v>
+      </c>
+      <c r="I66">
+        <v>-0.04764140159408209</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.01716806689031387</v>
+        <v>0.01730482817996552</v>
       </c>
       <c r="C67">
-        <v>-0.0211426489115604</v>
+        <v>-0.04190495985388898</v>
       </c>
       <c r="D67">
-        <v>-0.03666925248124386</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.01606629463797214</v>
+      </c>
+      <c r="E67">
+        <v>0.06196489595210292</v>
+      </c>
+      <c r="F67">
+        <v>-0.02410618908867361</v>
+      </c>
+      <c r="G67">
+        <v>0.03846176256941881</v>
+      </c>
+      <c r="H67">
+        <v>0.01628455207227667</v>
+      </c>
+      <c r="I67">
+        <v>-0.06213999632194839</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.2340995316234296</v>
+        <v>0.2769954841983741</v>
       </c>
       <c r="C68">
-        <v>0.08604832228239759</v>
+        <v>0.05764632590270067</v>
       </c>
       <c r="D68">
-        <v>-0.02471057266103599</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.04496315446736738</v>
+      </c>
+      <c r="E68">
+        <v>0.01027117904264941</v>
+      </c>
+      <c r="F68">
+        <v>0.04688538047643287</v>
+      </c>
+      <c r="G68">
+        <v>0.01440553254586547</v>
+      </c>
+      <c r="H68">
+        <v>-0.03756513941647166</v>
+      </c>
+      <c r="I68">
+        <v>0.006152028756457538</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.03252179540568671</v>
+        <v>0.01320804156423656</v>
       </c>
       <c r="C69">
-        <v>-0.1277260284037903</v>
+        <v>-0.1088290575112528</v>
       </c>
       <c r="D69">
-        <v>-0.04958837480393313</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01485725411123343</v>
+      </c>
+      <c r="E69">
+        <v>0.02666214759524635</v>
+      </c>
+      <c r="F69">
+        <v>-0.0188274576046834</v>
+      </c>
+      <c r="G69">
+        <v>0.003127905028806779</v>
+      </c>
+      <c r="H69">
+        <v>-0.008411122596320496</v>
+      </c>
+      <c r="I69">
+        <v>-0.05323062594792422</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2721,750 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.2557435810189726</v>
+        <v>0.2692775079945083</v>
       </c>
       <c r="C71">
-        <v>0.1110530302956916</v>
+        <v>0.07737986816312675</v>
       </c>
       <c r="D71">
-        <v>-0.01953659008453053</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01693162663075216</v>
+      </c>
+      <c r="E71">
+        <v>0.01843766013158044</v>
+      </c>
+      <c r="F71">
+        <v>0.02024843474824531</v>
+      </c>
+      <c r="G71">
+        <v>0.030788534587506</v>
+      </c>
+      <c r="H71">
+        <v>-0.01052375462783073</v>
+      </c>
+      <c r="I71">
+        <v>-0.07533139266013207</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.0770441159681973</v>
+        <v>0.06058498373099985</v>
       </c>
       <c r="C72">
-        <v>-0.1171283144234392</v>
+        <v>-0.1354522246472709</v>
       </c>
       <c r="D72">
-        <v>-0.08633403745403807</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.01968375814385944</v>
+      </c>
+      <c r="E72">
+        <v>0.05042089596755032</v>
+      </c>
+      <c r="F72">
+        <v>-0.02739574653581263</v>
+      </c>
+      <c r="G72">
+        <v>-0.0148301200010097</v>
+      </c>
+      <c r="H72">
+        <v>0.03333412048400326</v>
+      </c>
+      <c r="I72">
+        <v>0.03047160804046541</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1197100241783343</v>
+        <v>0.1426693716242043</v>
       </c>
       <c r="C73">
-        <v>-0.1134057837639558</v>
+        <v>-0.1681987158640095</v>
       </c>
       <c r="D73">
-        <v>-0.1378602649720398</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.06400602463210156</v>
+      </c>
+      <c r="E73">
+        <v>0.1649512808372301</v>
+      </c>
+      <c r="F73">
+        <v>-0.2928026894020318</v>
+      </c>
+      <c r="G73">
+        <v>-0.128840868350181</v>
+      </c>
+      <c r="H73">
+        <v>0.3183781402924943</v>
+      </c>
+      <c r="I73">
+        <v>0.3042607895669873</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.06876353891912412</v>
+        <v>0.04742189055910334</v>
       </c>
       <c r="C74">
-        <v>-0.1381210844782225</v>
+        <v>-0.1363812889855016</v>
       </c>
       <c r="D74">
-        <v>0.05393516912254161</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.06917586668263025</v>
+      </c>
+      <c r="E74">
+        <v>-0.04116182252246406</v>
+      </c>
+      <c r="F74">
+        <v>-0.01851028989485275</v>
+      </c>
+      <c r="G74">
+        <v>0.0129207081542144</v>
+      </c>
+      <c r="H74">
+        <v>-0.02120166300034998</v>
+      </c>
+      <c r="I74">
+        <v>-0.03367669063144144</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.1687013446017095</v>
+        <v>0.09539286868173176</v>
       </c>
       <c r="C75">
-        <v>-0.235733110107032</v>
+        <v>-0.2399010169841262</v>
       </c>
       <c r="D75">
-        <v>0.02634630255432024</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1168425186535395</v>
+      </c>
+      <c r="E75">
+        <v>-0.09630423878012541</v>
+      </c>
+      <c r="F75">
+        <v>-0.1648787392277638</v>
+      </c>
+      <c r="G75">
+        <v>0.1272016037806597</v>
+      </c>
+      <c r="H75">
+        <v>-0.2013178409038027</v>
+      </c>
+      <c r="I75">
+        <v>-0.03147367961147263</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.0897592185099428</v>
+        <v>0.05488753470215691</v>
       </c>
       <c r="C76">
-        <v>-0.1680853098928993</v>
+        <v>-0.1743562149784242</v>
       </c>
       <c r="D76">
-        <v>-0.008184300213338052</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.06375196111390642</v>
+      </c>
+      <c r="E76">
+        <v>-0.02597915668536863</v>
+      </c>
+      <c r="F76">
+        <v>-0.09370629948605018</v>
+      </c>
+      <c r="G76">
+        <v>0.01396881994725916</v>
+      </c>
+      <c r="H76">
+        <v>-0.06609771197511841</v>
+      </c>
+      <c r="I76">
+        <v>-0.05079126786626118</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.02694534832199859</v>
+        <v>0.02123531205133592</v>
       </c>
       <c r="C77">
-        <v>-0.08144228929412406</v>
+        <v>-0.1319874334470173</v>
       </c>
       <c r="D77">
-        <v>-0.2449927973760234</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.7462246871901745</v>
+      </c>
+      <c r="E77">
+        <v>-0.6210773131958849</v>
+      </c>
+      <c r="F77">
+        <v>-0.08913100947916996</v>
+      </c>
+      <c r="G77">
+        <v>0.03936910707741124</v>
+      </c>
+      <c r="H77">
+        <v>0.07478995287094069</v>
+      </c>
+      <c r="I77">
+        <v>-0.08603744713547412</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.02597029820469904</v>
+        <v>0.02424034697011576</v>
       </c>
       <c r="C78">
-        <v>-0.0962853680906664</v>
+        <v>-0.1067610861047871</v>
       </c>
       <c r="D78">
-        <v>-0.1172105466654591</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.01572117642797614</v>
+      </c>
+      <c r="E78">
+        <v>0.09809113421245982</v>
+      </c>
+      <c r="F78">
+        <v>0.05435549569378354</v>
+      </c>
+      <c r="G78">
+        <v>-0.02530645056141179</v>
+      </c>
+      <c r="H78">
+        <v>-0.09285146616181662</v>
+      </c>
+      <c r="I78">
+        <v>-0.09910938503100608</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.08539019548474308</v>
+        <v>0.05512904025596249</v>
       </c>
       <c r="C79">
-        <v>-0.3527887518479055</v>
+        <v>-0.2726709279875542</v>
       </c>
       <c r="D79">
-        <v>0.6687444446844325</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.3461396241914952</v>
+      </c>
+      <c r="E79">
+        <v>-0.4075848730893175</v>
+      </c>
+      <c r="F79">
+        <v>0.5953065107563309</v>
+      </c>
+      <c r="G79">
+        <v>-0.07575427563660106</v>
+      </c>
+      <c r="H79">
+        <v>0.4428738492611018</v>
+      </c>
+      <c r="I79">
+        <v>0.1207813015745065</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.002309726853115669</v>
+        <v>0.007934076389322637</v>
       </c>
       <c r="C80">
-        <v>-0.05452363386264383</v>
+        <v>-0.05373926377521451</v>
       </c>
       <c r="D80">
-        <v>-0.03028144512694303</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.0004176557690818886</v>
+      </c>
+      <c r="E80">
+        <v>0.06256871818358006</v>
+      </c>
+      <c r="F80">
+        <v>-0.02579348511223437</v>
+      </c>
+      <c r="G80">
+        <v>-0.0695406944621253</v>
+      </c>
+      <c r="H80">
+        <v>0.01776644499811733</v>
+      </c>
+      <c r="I80">
+        <v>0.02491623476639955</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.077304540509364</v>
+        <v>0.03456144373497337</v>
       </c>
       <c r="C81">
-        <v>-0.1552748508342362</v>
+        <v>-0.1534935471539602</v>
       </c>
       <c r="D81">
-        <v>0.05915592005053849</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.08112373364468646</v>
+      </c>
+      <c r="E81">
+        <v>-0.05984651467203047</v>
+      </c>
+      <c r="F81">
+        <v>-0.02732466687468649</v>
+      </c>
+      <c r="G81">
+        <v>0.02466073192372583</v>
+      </c>
+      <c r="H81">
+        <v>-0.07153226033190592</v>
+      </c>
+      <c r="I81">
+        <v>-0.08146610052884359</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.1329676583475929</v>
+        <v>0.07284372506082372</v>
       </c>
       <c r="C82">
-        <v>-0.2409191656772933</v>
+        <v>-0.2155759615761145</v>
       </c>
       <c r="D82">
-        <v>0.02673748998073952</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.1208683905799858</v>
+      </c>
+      <c r="E82">
+        <v>-0.0594537291922057</v>
+      </c>
+      <c r="F82">
+        <v>-0.1106439790286024</v>
+      </c>
+      <c r="G82">
+        <v>0.01183889239531465</v>
+      </c>
+      <c r="H82">
+        <v>-0.1340174872059931</v>
+      </c>
+      <c r="I82">
+        <v>-0.09287212285917812</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.002386704180202997</v>
+        <v>0.00385094518787854</v>
       </c>
       <c r="C83">
-        <v>-0.05131072086616426</v>
+        <v>-0.01870622674136194</v>
       </c>
       <c r="D83">
-        <v>-0.03412879633679623</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03893267930075372</v>
+      </c>
+      <c r="E83">
+        <v>-0.07419913831052197</v>
+      </c>
+      <c r="F83">
+        <v>0.06117483948214957</v>
+      </c>
+      <c r="G83">
+        <v>-0.8945595155378395</v>
+      </c>
+      <c r="H83">
+        <v>-0.3082731469934864</v>
+      </c>
+      <c r="I83">
+        <v>0.05757991283501956</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>-0.002888874905491307</v>
+        <v>-0.003411276264592405</v>
       </c>
       <c r="C84">
-        <v>-0.01060489649772638</v>
+        <v>-0.026567120070667</v>
       </c>
       <c r="D84">
-        <v>-0.0207358113239642</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.02379687932437115</v>
+      </c>
+      <c r="E84">
+        <v>0.04591556076585808</v>
+      </c>
+      <c r="F84">
+        <v>0.06077806369054733</v>
+      </c>
+      <c r="G84">
+        <v>0.04656536504308482</v>
+      </c>
+      <c r="H84">
+        <v>-0.03362196243760644</v>
+      </c>
+      <c r="I84">
+        <v>-0.06694512825076</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.08262529474335362</v>
+        <v>0.04735989456875527</v>
       </c>
       <c r="C85">
-        <v>-0.1832476725464617</v>
+        <v>-0.1746278359931574</v>
       </c>
       <c r="D85">
-        <v>0.08372090513160095</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1256936290153374</v>
+      </c>
+      <c r="E85">
+        <v>-0.07400783561744678</v>
+      </c>
+      <c r="F85">
+        <v>-0.02753141761181236</v>
+      </c>
+      <c r="G85">
+        <v>0.0211489314333757</v>
+      </c>
+      <c r="H85">
+        <v>-0.06373641936689185</v>
+      </c>
+      <c r="I85">
+        <v>-0.03312829576442693</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.0278394629223566</v>
+        <v>0.01708782724165857</v>
       </c>
       <c r="C86">
-        <v>-0.02841029538167116</v>
+        <v>-0.05758198993346993</v>
       </c>
       <c r="D86">
-        <v>-0.08162686000811176</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.05623064121115137</v>
+      </c>
+      <c r="E86">
+        <v>0.03447299527891247</v>
+      </c>
+      <c r="F86">
+        <v>0.07418507775269244</v>
+      </c>
+      <c r="G86">
+        <v>0.04100382705211231</v>
+      </c>
+      <c r="H86">
+        <v>-0.0299527082322222</v>
+      </c>
+      <c r="I86">
+        <v>-0.05243994114056094</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.0240740483533426</v>
+        <v>0.01499720059234846</v>
       </c>
       <c r="C87">
-        <v>-0.06973776107624809</v>
+        <v>-0.08963737251742868</v>
       </c>
       <c r="D87">
-        <v>-0.1271484026083226</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.08544175780725896</v>
+      </c>
+      <c r="E87">
+        <v>0.07668724295692192</v>
+      </c>
+      <c r="F87">
+        <v>0.08167799359371289</v>
+      </c>
+      <c r="G87">
+        <v>0.01678307640506923</v>
+      </c>
+      <c r="H87">
+        <v>-0.04412889146363565</v>
+      </c>
+      <c r="I87">
+        <v>-0.04242372890775818</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.03544013709342329</v>
+        <v>0.03546492445825387</v>
       </c>
       <c r="C88">
-        <v>-0.07728647775177037</v>
+        <v>-0.08262991508195655</v>
       </c>
       <c r="D88">
-        <v>-0.004754978946985323</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.009201691581289383</v>
+      </c>
+      <c r="E88">
+        <v>0.02421622560583593</v>
+      </c>
+      <c r="F88">
+        <v>-0.01774019790927188</v>
+      </c>
+      <c r="G88">
+        <v>0.004535135688642391</v>
+      </c>
+      <c r="H88">
+        <v>0.01930794213292446</v>
+      </c>
+      <c r="I88">
+        <v>-0.01802517018684065</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.4127284207378094</v>
+        <v>0.4077572505405693</v>
       </c>
       <c r="C89">
-        <v>0.2116923457043679</v>
+        <v>0.1524739418453626</v>
       </c>
       <c r="D89">
-        <v>0.006233410323220102</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.0294831082907862</v>
+      </c>
+      <c r="E89">
+        <v>0.01641350041466958</v>
+      </c>
+      <c r="F89">
+        <v>0.1144270639671319</v>
+      </c>
+      <c r="G89">
+        <v>-0.1017559182557658</v>
+      </c>
+      <c r="H89">
+        <v>-0.05945942904405712</v>
+      </c>
+      <c r="I89">
+        <v>-0.0208183246514079</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.3150161057434039</v>
+        <v>0.3246994526892749</v>
       </c>
       <c r="C90">
-        <v>0.1494525225476076</v>
+        <v>0.09623522895393861</v>
       </c>
       <c r="D90">
-        <v>-0.06917058863137024</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.04087062988921995</v>
+      </c>
+      <c r="E90">
+        <v>0.03821370616744846</v>
+      </c>
+      <c r="F90">
+        <v>0.01233329004195468</v>
+      </c>
+      <c r="G90">
+        <v>0.0141434692446174</v>
+      </c>
+      <c r="H90">
+        <v>-0.03078872775938405</v>
+      </c>
+      <c r="I90">
+        <v>0.013872736651715</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.1030460335089455</v>
+        <v>0.06504077740377115</v>
       </c>
       <c r="C91">
-        <v>-0.2175059302100812</v>
+        <v>-0.1883157546250604</v>
       </c>
       <c r="D91">
-        <v>0.08291698788641159</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1028984432980955</v>
+      </c>
+      <c r="E91">
+        <v>-0.1026843559988694</v>
+      </c>
+      <c r="F91">
+        <v>-0.01448049604541122</v>
+      </c>
+      <c r="G91">
+        <v>-0.01178607856699878</v>
+      </c>
+      <c r="H91">
+        <v>-0.0491239581807503</v>
+      </c>
+      <c r="I91">
+        <v>-0.01747767840709784</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.3178692496398866</v>
+        <v>0.3434080787700383</v>
       </c>
       <c r="C92">
-        <v>0.1580975929507774</v>
+        <v>0.1226120472527302</v>
       </c>
       <c r="D92">
-        <v>0.01254956054147188</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.02565869053945699</v>
+      </c>
+      <c r="E92">
+        <v>-0.01688151985654317</v>
+      </c>
+      <c r="F92">
+        <v>0.06914637529278711</v>
+      </c>
+      <c r="G92">
+        <v>0.09749429350148671</v>
+      </c>
+      <c r="H92">
+        <v>0.01550947674674445</v>
+      </c>
+      <c r="I92">
+        <v>-0.04137531904789013</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.3225484895260165</v>
+        <v>0.3253866982119198</v>
       </c>
       <c r="C93">
-        <v>0.1541508528570681</v>
+        <v>0.1162810090453855</v>
       </c>
       <c r="D93">
-        <v>0.04040771832266313</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.03306180016564029</v>
+      </c>
+      <c r="E93">
+        <v>-0.01211888186683037</v>
+      </c>
+      <c r="F93">
+        <v>0.0281127247798648</v>
+      </c>
+      <c r="G93">
+        <v>0.02039225265532867</v>
+      </c>
+      <c r="H93">
+        <v>-0.006077386975255614</v>
+      </c>
+      <c r="I93">
+        <v>-0.04090495287949456</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.1738892439457697</v>
+        <v>0.1151415532952708</v>
       </c>
       <c r="C94">
-        <v>-0.2612754890584214</v>
+        <v>-0.2550029382915061</v>
       </c>
       <c r="D94">
-        <v>0.08986519412237161</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.1935469576408118</v>
+      </c>
+      <c r="E94">
+        <v>-0.1917788350027662</v>
+      </c>
+      <c r="F94">
+        <v>-0.204139788928281</v>
+      </c>
+      <c r="G94">
+        <v>0.1028355155692</v>
+      </c>
+      <c r="H94">
+        <v>-0.3976415201236559</v>
+      </c>
+      <c r="I94">
+        <v>0.0985133173719599</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.03334589913325556</v>
+        <v>0.03525271872600885</v>
       </c>
       <c r="C95">
-        <v>-0.05378309463773653</v>
+        <v>-0.09435434722217305</v>
       </c>
       <c r="D95">
-        <v>-0.07878106019014131</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.05407246662187388</v>
+      </c>
+      <c r="E95">
+        <v>0.07713845277981492</v>
+      </c>
+      <c r="F95">
+        <v>-0.09081282540908787</v>
+      </c>
+      <c r="G95">
+        <v>0.03182366427501867</v>
+      </c>
+      <c r="H95">
+        <v>0.06278661191612762</v>
+      </c>
+      <c r="I95">
+        <v>-0.07815988285180785</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3475,83 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.00221740794137657</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.001931578441809539</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.002160063432572105</v>
+      </c>
+      <c r="E97">
+        <v>0.007908372227433597</v>
+      </c>
+      <c r="F97">
+        <v>0.0006901380147985001</v>
+      </c>
+      <c r="G97">
+        <v>0.006873430194157385</v>
+      </c>
+      <c r="H97">
+        <v>0.003110500554124771</v>
+      </c>
+      <c r="I97">
+        <v>-0.001337159143517295</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1069703616881837</v>
+        <v>0.1272308544334152</v>
       </c>
       <c r="C98">
-        <v>-0.1001896616659416</v>
+        <v>-0.1439090960435948</v>
       </c>
       <c r="D98">
-        <v>-0.1039368001382236</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.03585421949978568</v>
+      </c>
+      <c r="E98">
+        <v>0.1200381757390071</v>
+      </c>
+      <c r="F98">
+        <v>-0.2240367917902382</v>
+      </c>
+      <c r="G98">
+        <v>-0.08530041369866669</v>
+      </c>
+      <c r="H98">
+        <v>0.2809597951126137</v>
+      </c>
+      <c r="I98">
+        <v>0.3084180287120675</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3562,25 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3591,83 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.001573409977190908</v>
+        <v>0.002634779078720396</v>
       </c>
       <c r="C101">
-        <v>-0.03621854894270831</v>
+        <v>-0.06006263515190632</v>
       </c>
       <c r="D101">
-        <v>-0.07029187333002844</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.04967613993780844</v>
+      </c>
+      <c r="E101">
+        <v>0.1044756646323382</v>
+      </c>
+      <c r="F101">
+        <v>0.02491892036297021</v>
+      </c>
+      <c r="G101">
+        <v>-0.062740537620554</v>
+      </c>
+      <c r="H101">
+        <v>0.08045505467321135</v>
+      </c>
+      <c r="I101">
+        <v>-0.176388679956126</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.05690225611723111</v>
+        <v>0.02107333322448023</v>
       </c>
       <c r="C102">
-        <v>-0.1218811301751579</v>
+        <v>-0.08716355555555745</v>
       </c>
       <c r="D102">
-        <v>-0.0007806888910232868</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.047804229629667</v>
+      </c>
+      <c r="E102">
+        <v>-0.04180712120535326</v>
+      </c>
+      <c r="F102">
+        <v>-0.04033933785261804</v>
+      </c>
+      <c r="G102">
+        <v>-0.00623982905145518</v>
+      </c>
+      <c r="H102">
+        <v>-0.05704684648530004</v>
+      </c>
+      <c r="I102">
+        <v>-0.01875945195431095</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3678,25 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3705,21 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
